--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value863.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value863.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.130640381054966</v>
+        <v>0.7440765500068665</v>
       </c>
       <c r="B1">
-        <v>2.60368772777268</v>
+        <v>3.091638565063477</v>
       </c>
       <c r="C1">
-        <v>4.402755555616761</v>
+        <v>3.028201818466187</v>
       </c>
       <c r="D1">
-        <v>2.493927739203128</v>
+        <v>2.410148859024048</v>
       </c>
       <c r="E1">
-        <v>1.179517237082563</v>
+        <v>1.492595791816711</v>
       </c>
     </row>
   </sheetData>
